--- a/Result/보고서.xlsx
+++ b/Result/보고서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/edea27d6c058b310/Github/UnitTestCode_gnerator/Result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{9C7B52E8-3C84-49D6-B516-3245CBF801B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5927C61-0AC3-462A-A551-9C58E500E08A}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{9C7B52E8-3C84-49D6-B516-3245CBF801B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{359248AE-3BA0-4BC6-BFB2-496E4EB003C5}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="2500" windowWidth="19200" windowHeight="10073" tabRatio="601" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2740" yWindow="3180" windowWidth="19200" windowHeight="10073" tabRatio="601" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit_TC" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2262" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="109">
   <si>
     <t>TC ID</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -323,6 +323,58 @@
   </si>
   <si>
     <t>Nvm_MemoryErrorFlag</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement Based Test among Analysis of boundary value of SWDDS.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement Based Test among Equivalence testing of SWDDS.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault Injection Test among Error guessing of SWDDS.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirement Based Test among Development of positive of SWDDS.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% 일시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOK list 에 포함시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100% 가 아닐시</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boundary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equivalence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fault Injection</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Statement</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description 내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coverage</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -634,7 +686,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -698,6 +750,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,6 +1205,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,6 +1297,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -4536,7 +4603,7 @@
   <dimension ref="A1:ADU139"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A9" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+      <selection activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.7"/>
@@ -4650,69 +4717,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="92" t="s">
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="93" t="s">
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="94" t="s">
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="AB10" s="90" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -4884,25 +4951,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="83" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -4917,7 +4984,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -4929,12 +4996,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="89"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="91"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -5104,21 +5171,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="81"/>
       <c r="Q12" s="7">
         <f>SUM(Q13:Q42)</f>
         <v>17</v>
@@ -5135,7 +5202,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="91"/>
+      <c r="U12" s="93"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -5148,10 +5215,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="89"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="91"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -5322,25 +5389,25 @@
     </row>
     <row r="13" spans="2:801" s="2" customFormat="1" ht="67" thickTop="1">
       <c r="B13" s="52" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F13" s="53" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G13" s="54" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I13" s="56" t="str">
         <f>$B13&amp;".xls"</f>
@@ -5350,10 +5417,10 @@
         <v>29</v>
       </c>
       <c r="K13" s="55" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L13" s="57" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="M13" s="56" t="str">
         <f>$B13&amp;".xls"</f>
@@ -5391,7 +5458,7 @@
       </c>
       <c r="Y13" s="52"/>
       <c r="Z13" s="63">
-        <v>44597</v>
+        <v>44607</v>
       </c>
       <c r="AA13" s="63"/>
       <c r="AB13" s="33"/>
@@ -5565,25 +5632,25 @@
     </row>
     <row r="14" spans="2:801" s="2" customFormat="1" ht="50">
       <c r="B14" s="52" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E14" s="52" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F14" s="53" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="I14" s="56" t="str">
         <f t="shared" ref="I14:I77" si="0">$B14&amp;".xls"</f>
@@ -5596,7 +5663,7 @@
         <v>50</v>
       </c>
       <c r="L14" s="57" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M14" s="56" t="str">
         <f t="shared" ref="M14:N29" si="1">$B14&amp;".xls"</f>
@@ -5634,7 +5701,7 @@
       </c>
       <c r="Y14" s="52"/>
       <c r="Z14" s="63">
-        <v>44597</v>
+        <v>44607</v>
       </c>
       <c r="AA14" s="63"/>
       <c r="AB14" s="33"/>
@@ -5808,25 +5875,25 @@
     </row>
     <row r="15" spans="2:801" s="2" customFormat="1" ht="400">
       <c r="B15" s="52" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F15" s="53" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I15" s="56" t="str">
         <f t="shared" si="0"/>
@@ -5836,10 +5903,10 @@
         <v>57</v>
       </c>
       <c r="K15" s="65" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="L15" s="57" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="M15" s="56" t="str">
         <f t="shared" si="1"/>
@@ -5877,7 +5944,7 @@
       </c>
       <c r="Y15" s="52"/>
       <c r="Z15" s="63">
-        <v>44597</v>
+        <v>44607</v>
       </c>
       <c r="AA15" s="63"/>
       <c r="AB15" s="33"/>
@@ -6051,25 +6118,25 @@
     </row>
     <row r="16" spans="2:801" s="2" customFormat="1" ht="266.7">
       <c r="B16" s="52" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="F16" s="53" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="I16" s="56" t="str">
         <f t="shared" si="0"/>
@@ -6082,7 +6149,7 @@
         <v>50</v>
       </c>
       <c r="L16" s="57" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="M16" s="56" t="str">
         <f t="shared" si="1"/>
@@ -6120,7 +6187,7 @@
       </c>
       <c r="Y16" s="52"/>
       <c r="Z16" s="63">
-        <v>44597</v>
+        <v>44607</v>
       </c>
       <c r="AA16" s="63"/>
       <c r="AB16" s="33"/>
@@ -13241,69 +13308,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="92" t="s">
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="93" t="s">
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="94" t="s">
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="AB10" s="90" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -13475,25 +13542,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="83" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -13508,7 +13575,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -13520,12 +13587,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="89"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="91"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -13695,21 +13762,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="81"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -13726,7 +13793,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="91"/>
+      <c r="U12" s="93"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -13739,10 +13806,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="89"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="91"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -21709,69 +21776,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="92" t="s">
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="93" t="s">
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="94" t="s">
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="AB10" s="90" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -21943,25 +22010,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="83" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -21976,7 +22043,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -21988,12 +22055,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="89"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="91"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -22163,21 +22230,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="81"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -22194,7 +22261,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="91"/>
+      <c r="U12" s="93"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -22207,10 +22274,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="89"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="91"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -30177,69 +30244,69 @@
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="2:801" s="2" customFormat="1">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="83" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="81" t="s">
+      <c r="F10" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="82" t="s">
+      <c r="G10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="81" t="s">
+      <c r="H10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="78" t="s">
+      <c r="J10" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="78" t="s">
+      <c r="K10" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="L10" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="81" t="s">
+      <c r="M10" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="N10" s="81" t="s">
+      <c r="N10" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="92" t="s">
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="93" t="s">
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="79"/>
-      <c r="Z10" s="94" t="s">
+      <c r="W10" s="81"/>
+      <c r="X10" s="81"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="AA10" s="81" t="s">
+      <c r="AA10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="88" t="s">
+      <c r="AB10" s="90" t="s">
         <v>18</v>
       </c>
       <c r="XB10" s="3"/>
@@ -30411,25 +30478,25 @@
       <c r="ADU10" s="3"/>
     </row>
     <row r="11" spans="2:801" s="2" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81" t="s">
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="81" t="s">
+      <c r="P11" s="83" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="5" t="s">
@@ -30444,7 +30511,7 @@
       <c r="T11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="90" t="s">
+      <c r="U11" s="92" t="s">
         <v>18</v>
       </c>
       <c r="V11" s="6" t="s">
@@ -30456,12 +30523,12 @@
       <c r="X11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y11" s="92" t="s">
+      <c r="Y11" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="89"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="91"/>
       <c r="XB11" s="3"/>
       <c r="XC11" s="3"/>
       <c r="XD11" s="3"/>
@@ -30631,21 +30698,21 @@
       <c r="ADU11" s="3"/>
     </row>
     <row r="12" spans="2:801" s="2" customFormat="1" ht="15.6" customHeight="1" thickBot="1">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="79"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="81"/>
       <c r="Q12" s="77">
         <f>SUM(Q13:Q42)</f>
         <v>0</v>
@@ -30662,7 +30729,7 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="U12" s="91"/>
+      <c r="U12" s="93"/>
       <c r="V12" s="6" t="str">
         <f>IFERROR(W12/X12,"N/A")</f>
         <v>N/A</v>
@@ -30675,10 +30742,10 @@
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="89"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="91"/>
       <c r="XB12" s="3"/>
       <c r="XC12" s="3"/>
       <c r="XD12" s="3"/>
@@ -38570,16 +38637,16 @@
       <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:17" s="19" customFormat="1" ht="18" customHeight="1">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="101" t="s">
+      <c r="C2" s="98"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="105"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
       <c r="J2" s="21"/>
@@ -38587,12 +38654,12 @@
     </row>
     <row r="3" spans="1:17" s="19" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="20"/>
       <c r="I3" s="20"/>
       <c r="J3" s="21"/>
@@ -39417,10 +39484,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD74793-907D-49E2-A808-EE8270BBBBB5}">
-  <dimension ref="B2:G78"/>
+  <dimension ref="B2:L78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.7"/>
@@ -39433,7 +39500,7 @@
     <col min="7" max="7" width="20.609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="29.7" customHeight="1">
+    <row r="2" spans="2:12" ht="29.7" customHeight="1">
       <c r="B2" s="39" t="s">
         <v>61</v>
       </c>
@@ -39447,7 +39514,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:12">
       <c r="B3" s="68" t="s">
         <v>73</v>
       </c>
@@ -39459,7 +39526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:12">
       <c r="B4" s="68" t="s">
         <v>70</v>
       </c>
@@ -39468,7 +39535,7 @@
       </c>
       <c r="E4" s="68"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:12">
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="E5" s="68"/>
@@ -39476,7 +39543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:12">
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="E6" s="68"/>
@@ -39484,7 +39551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:12">
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="E7" s="68"/>
@@ -39492,127 +39559,221 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:12">
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
       <c r="E8" s="68"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:12">
       <c r="B9" s="68"/>
       <c r="C9" s="68"/>
       <c r="E9" s="68"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:12">
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
       <c r="E10" s="68"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:12">
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
       <c r="E11" s="68"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="G11" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+    </row>
+    <row r="12" spans="2:12">
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
       <c r="E12" s="68"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="G12" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
       <c r="E13" s="68"/>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="G13" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="78"/>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="68"/>
       <c r="C14" s="68"/>
       <c r="E14" s="68"/>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="G14" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
       <c r="E15" s="68"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="G15" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
       <c r="E16" s="68"/>
-    </row>
-    <row r="17" spans="2:5">
+      <c r="G16" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
       <c r="E17" s="68"/>
-    </row>
-    <row r="18" spans="2:5">
+      <c r="G17" s="78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
       <c r="E18" s="68"/>
-    </row>
-    <row r="19" spans="2:5">
+      <c r="G18" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
       <c r="E19" s="68"/>
-    </row>
-    <row r="20" spans="2:5">
+      <c r="G19" s="78" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="78"/>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
       <c r="E20" s="68"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:12">
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
       <c r="E21" s="68"/>
-    </row>
-    <row r="22" spans="2:5">
+      <c r="G21" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="109"/>
+    </row>
+    <row r="22" spans="2:12">
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
       <c r="E22" s="68"/>
-    </row>
-    <row r="23" spans="2:5">
+      <c r="G22" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
       <c r="E23" s="68"/>
-    </row>
-    <row r="24" spans="2:5">
+      <c r="G23" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="78" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
       <c r="B24" s="68"/>
       <c r="C24" s="68"/>
       <c r="E24" s="68"/>
-    </row>
-    <row r="25" spans="2:5">
+      <c r="G24" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="78" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
       <c r="B25" s="68"/>
       <c r="C25" s="68"/>
       <c r="E25" s="68"/>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:12">
       <c r="B26" s="68"/>
       <c r="C26" s="68"/>
       <c r="E26" s="68"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:12">
       <c r="B27" s="68"/>
       <c r="C27" s="68"/>
       <c r="E27" s="68"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:12">
       <c r="B28" s="68"/>
       <c r="C28" s="68"/>
       <c r="E28" s="68"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:12">
       <c r="B29" s="68"/>
       <c r="C29" s="68"/>
       <c r="E29" s="68"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:12">
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
       <c r="E30" s="68"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:12">
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
       <c r="E31" s="68"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:12">
       <c r="B32" s="68"/>
       <c r="C32" s="68"/>
       <c r="E32" s="68"/>
@@ -39848,6 +40009,10 @@
       <c r="E78" s="68"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G21:H21"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
